--- a/QUESTÕES/INFORMÁTICA 06.xlsx
+++ b/QUESTÕES/INFORMÁTICA 06.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t xml:space="preserve">materia</t>
   </si>
@@ -58,97 +58,97 @@
     <t xml:space="preserve">=MÉDIA(num1;[num2];...) Calcula a média aritmética dos números inseridos.</t>
   </si>
   <si>
+    <t xml:space="preserve">=MÉDIA(D4:H4;R23;-2) - somará todos os números de D4 a H4, mais o valor em R23, mais -2 e dividirá pela quantidade de números encontrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MED(num1;[num2];...) Calcula a mediana dos números inseridos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MED(D8:F15;20) – ordenará todos os números entre D8 a F15 mais o número 20 e retornará o número do meio desta lista. Se houver dois números no meio, calcula a média deles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SE(condição; valor_se_verdadeiro; valor_se_falso) – importante! Analisa a condição. Se VERDADEIRA, retorna o primeiro valor. Se FALSA, retorna o segundo valor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SE(A1&lt;&gt;B2;”Aprovado”;C4+D5) – verificará se A1 é diferente de B2. Se for verdade, escreverá Aprovado; se não for, calculará C4+D5 e dará a resposta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SOMASE(intervalo; critérios; [intervalo_a_ser_somado]) Dado um intervalo, ele verifica uma condição: para as células do intervalo em que a condição seja verdadeira, ele realiza a soma no intervalo da soma correspondente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=SOMASE(A1:A8;”&gt;300”;B1:B8) – verificará entre A1 e A8 quais células possuem valores maiores que 300. Supondo que somente A3 e A7 atendam a esse critério, a função irá somar B3 e B7 para entregar a resposta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=CONT.NÚM(dado1;[dado2];...) Conta quantos dos dados inseridos são números, e retorna a contagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=CONT.NÚM(A15:D45) – trará como resposta a quantidade de células entre A15 e D45 que possuem números</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=CONT.VALORES(dado1;[dado2];...) Calcula o número de células não vazias e os valores na lista de argumentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=CONT.VALORES(A3:E12) – trará como resposta a quantidade de células entre A3 e E12 que não estão vazias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=CONT.SE(intervalo;critérios) Calcula o número de células não vazias em um intervalo que corresponde a determinados critérios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=CONT.SE(A8:C20;”&gt;=”&amp;2020) – trará como resposta a quantidade de células entre A8 e C20 que possuem conteúdo igual ou maior do que 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MÁXIMO(num1;[num2];...) Retorna o maior dos números (valor máximo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MÁXIMO(D4:H36) – trará como resposta o maior número do intervalor D4 a H36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MÍNIMO(num1;[num2];...) Retorna o menor dos números (valor mínimo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MÍNIMO(A5:C18;7;2) – trará como resposta o menor número do intervalo A5 a C18, 7 e 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MAIOR(matriz;k) Retorna o k-ésimo maior dos números.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MAIOR(H2:Z20;7) – trará como resposta o sétimo maior número do intervalo H2 a Z20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MENOR(matriz;k) Retorna o k-ésimo menor dos números.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=MENOR(A1:A5;5) – trará como resposta o quinto menor número do intervalo A1 a A5. Veja que coincide com o maior número</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=PROCV(valor_procurado, matriz_tabela, núm_índice_coluna, [intervalo_pesquisa]) Procura um valor na primeira coluna à esquerda de uma tabela e retorna um valor na mesma linha de uma coluna especificada. Como padrão, a tabela deve estar classificada em ordem crescente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=PROCV(“Texto”;A1:D8;3;FALSO) – buscará a palavra “texto” na coluna A e, quando encontrar, trará como resultado o valor encontrado na coluna C(que é a terceira), na mesma linha em que “texto” for encontrado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=CONCATENAR(texto1; [texto2];...) Agrupa os textos inseridos como uma única cadeia de texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=CONCATENAR(C3;B2;A1;A3;C1) – retornará uma única cadeia de texto com o conteúdo das células passadas como parâmetro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fórmula estatística MED(B2:B6) permite o cálculo da mediana entre os preços cotados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função MED irá calcular a mediana do intervalo de B2 a B6, encontrando corretamente o valor central.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fórmula SOMA(B2:B6)/CONT.NÚM(B2:B6) permite o cálculo da média aritmética dos preços cotados, em substituição à fórmula estatística padrão do Excel para esse cálculo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar o cálculo SOMA/CONT.NÚM para um mesmo intervalo é o equivalente a calcular a MÉDIA. Afinal, média é a soma dos termos dividida pela quantidade deles. SOMA soma apenas números e CONT.NÚM conta a quantidade de números.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fórmula MENOR(B2:B6) permite determinar o menor valor cotado entre as lojas pesquisadas.</t>
+  </si>
+  <si>
     <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MÉDIA(D4:H4;R23;-2) - somará todos os números de D4 a H4, mais o valor em R23, mais -2 e dividirá pela quantidade de números encontrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MED(num1;[num2];...) Calcula a mediana dos números inseridos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MED(D8:F15;20) – ordenará todos os números entre D8 a F15 mais o número 20 e retornará o número do meio desta lista. Se houver dois números no meio, calcula a média deles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=SE(condição; valor_se_verdadeiro; valor_se_falso) – importante! Analisa a condição. Se VERDADEIRA, retorna o primeiro valor. Se FALSA, retorna o segundo valor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=SE(A1&lt;&gt;B2;”Aprovado”;C4+D5) – verificará se A1 é diferente de B2. Se for verdade, escreverá Aprovado; se não for, calculará C4+D5 e dará a resposta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=SOMASE(intervalo; critérios; [intervalo_a_ser_somado]) Dado um intervalo, ele verifica uma condição: para as células do intervalo em que a condição seja verdadeira, ele realiza a soma no intervalo da soma correspondente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=SOMASE(A1:A8;”&gt;300”;B1:B8) – verificará entre A1 e A8 quais células possuem valores maiores que 300. Supondo que somente A3 e A7 atendam a esse critério, a função irá somar B3 e B7 para entregar a resposta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=CONT.NÚM(dado1;[dado2];...) Conta quantos dos dados inseridos são números, e retorna a contagem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=CONT.NÚM(A15:D45) – trará como resposta a quantidade de células entre A15 e D45 que possuem números</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=CONT.VALORES(dado1;[dado2];...) Calcula o número de células não vazias e os valores na lista de argumentos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=CONT.VALORES(A3:E12) – trará como resposta a quantidade de células entre A3 e E12 que não estão vazias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=CONT.SE(intervalo;critérios) Calcula o número de células não vazias em um intervalo que corresponde a determinados critérios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=CONT.SE(A8:C20;”&gt;=”&amp;2020) – trará como resposta a quantidade de células entre A8 e C20 que possuem conteúdo igual ou maior do que 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MÁXIMO(num1;[num2];...) Retorna o maior dos números (valor máximo).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MÁXIMO(D4:H36) – trará como resposta o maior número do intervalor D4 a H36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MÍNIMO(num1;[num2];...) Retorna o menor dos números (valor mínimo).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MÍNIMO(A5:C18;7;2) – trará como resposta o menor número do intervalo A5 a C18, 7 e 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MAIOR(matriz;k) Retorna o k-ésimo maior dos números.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MAIOR(H2:Z20;7) – trará como resposta o sétimo maior número do intervalo H2 a Z20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MENOR(matriz;k) Retorna o k-ésimo menor dos números.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=MENOR(A1:A5;5) – trará como resposta o quinto menor número do intervalo A1 a A5. Veja que coincide com o maior número</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=PROCV(valor_procurado, matriz_tabela, núm_índice_coluna, [intervalo_pesquisa]) Procura um valor na primeira coluna à esquerda de uma tabela e retorna um valor na mesma linha de uma coluna especificada. Como padrão, a tabela deve estar classificada em ordem crescente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=PROCV(“Texto”;A1:D8;3;FALSO) – buscará a palavra “texto” na coluna A e, quando encontrar, trará como resultado o valor encontrado na coluna C(que é a terceira), na mesma linha em que “texto” for encontrado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=CONCATENAR(texto1; [texto2];...) Agrupa os textos inseridos como uma única cadeia de texto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=CONCATENAR(C3;B2;A1;A3;C1) – retornará uma única cadeia de texto com o conteúdo das células passadas como parâmetro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A fórmula estatística MED(B2:B6) permite o cálculo da mediana entre os preços cotados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A função MED irá calcular a mediana do intervalo de B2 a B6, encontrando corretamente o valor central.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A fórmula SOMA(B2:B6)/CONT.NÚM(B2:B6) permite o cálculo da média aritmética dos preços cotados, em substituição à fórmula estatística padrão do Excel para esse cálculo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar o cálculo SOMA/CONT.NÚM para um mesmo intervalo é o equivalente a calcular a MÉDIA. Afinal, média é a soma dos termos dividida pela quantidade deles. SOMA soma apenas números e CONT.NÚM conta a quantidade de números.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A fórmula MENOR(B2:B6) permite determinar o menor valor cotado entre as lojas pesquisadas.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuidado! Quem calcula o menor valor cotado é MÍNIMO(B2:B6) ou MENOR(B2:B6;1). A sintaxe da assertiva está errada.</t>
@@ -456,7 +456,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -500,9 +500,7 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
@@ -510,7 +508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -520,317 +518,285 @@
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="54.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="5" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="54.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,9 +806,7 @@
       <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
         <v>9</v>
       </c>
@@ -850,7 +814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,17 +824,15 @@
       <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,17 +842,15 @@
       <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,17 +860,15 @@
       <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,9 +878,7 @@
       <c r="C23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
         <v>9</v>
       </c>
@@ -930,7 +886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="54.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,17 +896,15 @@
       <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,9 +914,7 @@
       <c r="C25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
@@ -970,7 +922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -980,17 +932,15 @@
       <c r="C26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1000,9 +950,7 @@
       <c r="C27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
         <v>9</v>
       </c>
@@ -1010,7 +958,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="75.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,17 +968,15 @@
       <c r="C28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="54.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,9 +986,7 @@
       <c r="C29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
@@ -1050,7 +994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="55.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="54.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,9 +1004,7 @@
       <c r="C30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="5" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1080,17 +1022,15 @@
       <c r="C31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1100,17 +1040,15 @@
       <c r="C32" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1120,17 +1058,15 @@
       <c r="C33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1140,9 +1076,7 @@
       <c r="C34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1160,17 +1094,15 @@
       <c r="C35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1180,9 +1112,7 @@
       <c r="C36" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1200,17 +1130,15 @@
       <c r="C37" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1220,17 +1148,15 @@
       <c r="C38" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1240,17 +1166,15 @@
       <c r="C39" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="66.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1260,17 +1184,15 @@
       <c r="C40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1280,17 +1202,15 @@
       <c r="C41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1300,9 +1220,7 @@
       <c r="C42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
         <v>9</v>
       </c>
@@ -1310,7 +1228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1320,17 +1238,15 @@
       <c r="C43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1340,17 +1256,15 @@
       <c r="C44" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -1360,17 +1274,15 @@
       <c r="C45" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1380,17 +1292,15 @@
       <c r="C46" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -1400,17 +1310,15 @@
       <c r="C47" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -1420,17 +1328,15 @@
       <c r="C48" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="33.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -1440,17 +1346,15 @@
       <c r="C49" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -1459,9 +1363,6 @@
       </c>
       <c r="C50" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>9</v>
